--- a/biology/Zoologie/Indotyphlidae/Indotyphlidae.xlsx
+++ b/biology/Zoologie/Indotyphlidae/Indotyphlidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Indotyphlidae sont une famille de gymnophiones[1]. Elle a été créée par Jean Lescure, Sabine Renous et Jean-Pierre Gasc en 1977. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Indotyphlidae sont une famille de gymnophiones. Elle a été créée par Jean Lescure, Sabine Renous et Jean-Pierre Gasc en 1977. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de cette famille se rencontrent en Asie du Sud et en Afrique subsaharienne[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de cette famille se rencontrent en Asie du Sud et en Afrique subsaharienne.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Amphibian Species of the World                      (10 février 2014)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Amphibian Species of the World                      (10 février 2014) :
 Gegeneophis Peters, 1880
 Grandisonia Taylor, 1968
 Hypogeophis Peters, 1880
@@ -579,9 +595,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Considérée par le passé comme synonyme des Caeciliidae, elle a été rétablie par Wilkinson, San Mauro, Sherratt et Gower en 2011[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Considérée par le passé comme synonyme des Caeciliidae, elle a été rétablie par Wilkinson, San Mauro, Sherratt et Gower en 2011.
 </t>
         </is>
       </c>
@@ -610,7 +628,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Lescure, Renous &amp; Gasc, 1986 : Proposition d'une nouvelle classification des amphibiens gymnophiones. Mémoires de la Société Zoologique de France, vol. 43, p. 145–177.</t>
         </is>
